--- a/corte/IngListas/BASE_LISTAS.xlsx
+++ b/corte/IngListas/BASE_LISTAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Trazability\corte\IngListas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5C0E47-6031-4600-8F28-0A0AD9C631D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FD9191-0B8D-4CED-9C74-21C31674284B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6CAB0437-2EF7-4A53-89CC-660996A8E9E3}"/>
   </bookViews>
@@ -504,7 +504,37 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -519,6 +549,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -529,6 +568,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,6 +587,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -573,9 +624,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -587,54 +635,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:AR472"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1047,282 +1047,282 @@
     <col min="15" max="15" width="14.6640625" style="14" customWidth="1"/>
     <col min="16" max="16" width="15.77734375" style="14" customWidth="1"/>
     <col min="17" max="17" width="13.77734375" style="15" customWidth="1"/>
-    <col min="18" max="18" width="43.77734375" style="59" customWidth="1"/>
+    <col min="18" max="18" width="43.77734375" style="17" customWidth="1"/>
     <col min="19" max="20" width="10.88671875" style="11"/>
     <col min="21" max="44" width="10.88671875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
       <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:44" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
       <c r="R2" s="10"/>
     </row>
     <row r="3" spans="1:44" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
       <c r="R3" s="10"/>
     </row>
     <row r="4" spans="1:44" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="42" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="47" t="s">
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="47"/>
+      <c r="M4" s="46"/>
       <c r="N4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="49"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="22"/>
     </row>
     <row r="5" spans="1:44" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="35">
+      <c r="P5" s="52">
         <v>44016</v>
       </c>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="57"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="1:44" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="37" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="39" t="s">
+      <c r="J6" s="54"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="31" t="s">
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="57"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="23"/>
     </row>
     <row r="7" spans="1:44" ht="24.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
       <c r="O7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="57"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="23"/>
     </row>
     <row r="8" spans="1:44" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
       <c r="O8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="58"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="24"/>
     </row>
     <row r="9" spans="1:44" s="1" customFormat="1" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="20" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="44" t="s">
+      <c r="J9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="44" t="s">
+      <c r="K9" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="L9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="44" t="s">
+      <c r="M9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="44" t="s">
+      <c r="N9" s="20" t="s">
         <v>27</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="44" t="s">
+      <c r="P9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="Q9" s="29" t="s">
+      <c r="Q9" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="R9" s="49" t="s">
+      <c r="R9" s="22" t="s">
         <v>32</v>
       </c>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
     </row>
     <row r="10" spans="1:44" ht="18.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
       <c r="O10" s="6">
         <v>1</v>
       </c>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="58"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="24"/>
     </row>
     <row r="11" spans="1:44" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="S11" s="13"/>
@@ -14262,6 +14262,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A6:D8"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:G5"/>
+    <mergeCell ref="I6:J8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N8"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -14278,24 +14296,6 @@
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N8"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="A6:D8"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:G5"/>
-    <mergeCell ref="I6:J8"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
